--- a/biology/Médecine/Veine_petite_saphène/Veine_petite_saphène.xlsx
+++ b/biology/Médecine/Veine_petite_saphène/Veine_petite_saphène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Veine_petite_saph%C3%A8ne</t>
+          <t>Veine_petite_saphène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine petite saphène (ou veine saphène externe) est une veine du réseau superficiel du membre inférieur située sur la partie latérale du pied et la face postérieure de la jambe.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Veine_petite_saph%C3%A8ne</t>
+          <t>Veine_petite_saphène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine petite saphène est le prolongement de la veine marginale latérale du pied. en arrière de la malléole latérale.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Veine_petite_saph%C3%A8ne</t>
+          <t>Veine_petite_saphène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine petite saphène remonte le long du bord latéral du tendon calcanéen, puis passe dans le milieu de la face postérieure de la jambe entre les deux chefs du muscle gastrocnémien.
 Elle chemine au dessus du fascia crural jusqu'à la partie moyenne de la jambe puis dans un dédoublement de ce fascia jusqu'à l'interligne de l'articulation du genou.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Veine_petite_saph%C3%A8ne</t>
+          <t>Veine_petite_saphène</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Affluents</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine petite saphène reçoit des veines plantaires, des veines superficielles de la face postérieure de la jambe et du creux poplité.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Veine_petite_saph%C3%A8ne</t>
+          <t>Veine_petite_saphène</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Anastomoses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine petite saphène s'anastomose avec la veine grande saphène par la veine saphène accessoire.
 Par les veines perforantes, elle s'anastomose avec les veines profondes de la jambe.
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Veine_petite_saph%C3%A8ne</t>
+          <t>Veine_petite_saphène</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine petite saphène présente neuf à douze valvules dont une ostiale constante. 
 </t>
@@ -651,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Veine_petite_saph%C3%A8ne</t>
+          <t>Veine_petite_saphène</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,7 +691,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine petite saphène peut devenir variqueuse.
 La petite veine saphène peut être prélevée pour être transplantée ailleurs dans le corps, pour un pontage coronarien par exemple . 
